--- a/Bricadeiras/Frutaria.xlsx
+++ b/Bricadeiras/Frutaria.xlsx
@@ -460,7 +460,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Cereja</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
